--- a/artfynd/Stor-Svartliden artfynd.xlsx
+++ b/artfynd/Stor-Svartliden artfynd.xlsx
@@ -3800,32 +3800,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56623471</v>
+        <v>16944424</v>
       </c>
       <c r="B31" t="n">
-        <v>91819</v>
+        <v>80118</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>760</v>
+        <v>6463</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3835,13 +3835,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>676263</v>
+        <v>677163</v>
       </c>
       <c r="R31" t="n">
-        <v>7121068</v>
+        <v>7120894</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3882,52 +3882,62 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16944424</v>
+        <v>56623471</v>
       </c>
       <c r="B32" t="n">
-        <v>80118</v>
+        <v>91819</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6463</v>
+        <v>760</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3937,13 +3947,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>677163</v>
+        <v>676263</v>
       </c>
       <c r="R32" t="n">
-        <v>7120894</v>
+        <v>7121068</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3984,30 +3994,20 @@
       <c r="AG32" t="b">
         <v>0</v>
       </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>

--- a/artfynd/Stor-Svartliden artfynd.xlsx
+++ b/artfynd/Stor-Svartliden artfynd.xlsx
@@ -1011,7 +1011,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16944761</v>
+        <v>56623481</v>
       </c>
       <c r="B5" t="n">
         <v>80083</v>
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>677163</v>
+        <v>676053</v>
       </c>
       <c r="R5" t="n">
-        <v>7120894</v>
+        <v>7121073</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1093,62 +1093,52 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16944622</v>
+        <v>16944761</v>
       </c>
       <c r="B6" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1158,10 +1148,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>677454</v>
+        <v>677163</v>
       </c>
       <c r="R6" t="n">
-        <v>7121421</v>
+        <v>7120894</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1207,17 +1197,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1235,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16944994</v>
+        <v>16944622</v>
       </c>
       <c r="B7" t="n">
-        <v>80112</v>
+        <v>80119</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1246,21 +1236,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1270,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676936</v>
+        <v>677454</v>
       </c>
       <c r="R7" t="n">
-        <v>7120920</v>
+        <v>7121421</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1319,17 +1309,17 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1347,32 +1337,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56623481</v>
+        <v>16944994</v>
       </c>
       <c r="B8" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1382,13 +1372,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676053</v>
+        <v>676936</v>
       </c>
       <c r="R8" t="n">
-        <v>7121073</v>
+        <v>7120920</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1429,20 +1419,30 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -3358,52 +3358,48 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7120347</v>
+        <v>16944516</v>
       </c>
       <c r="B27" t="n">
-        <v>80118</v>
+        <v>91263</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Vargträsk, Ly lm</t>
+          <t>Stor-Svartliden, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>677992</v>
+        <v>677434</v>
       </c>
       <c r="R27" t="n">
-        <v>7120515</v>
+        <v>7121446</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3427,17 +3423,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33671</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3448,64 +3439,83 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16944516</v>
+        <v>7120347</v>
       </c>
       <c r="B28" t="n">
-        <v>91263</v>
+        <v>80118</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stor-Svartliden, Ly lm</t>
+          <t>Vargträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677434</v>
+        <v>677992</v>
       </c>
       <c r="R28" t="n">
-        <v>7121446</v>
+        <v>7120515</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3529,12 +3539,17 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33671</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3545,31 +3560,16 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>

--- a/artfynd/Stor-Svartliden artfynd.xlsx
+++ b/artfynd/Stor-Svartliden artfynd.xlsx
@@ -1011,32 +1011,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56623481</v>
+        <v>16944994</v>
       </c>
       <c r="B5" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676053</v>
+        <v>676936</v>
       </c>
       <c r="R5" t="n">
-        <v>7121073</v>
+        <v>7120920</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1093,20 +1093,30 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1337,32 +1347,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16944994</v>
+        <v>56623481</v>
       </c>
       <c r="B8" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,13 +1382,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676936</v>
+        <v>676053</v>
       </c>
       <c r="R8" t="n">
-        <v>7120920</v>
+        <v>7121073</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1419,40 +1429,30 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56623489</v>
+        <v>16944554</v>
       </c>
       <c r="B9" t="n">
-        <v>80084</v>
+        <v>91259</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,21 +1460,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>676055</v>
+        <v>677122</v>
       </c>
       <c r="R9" t="n">
-        <v>7121083</v>
+        <v>7121243</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1531,30 +1531,45 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>låga</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Picea abies # låga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16944554</v>
+        <v>67478964</v>
       </c>
       <c r="B10" t="n">
-        <v>91259</v>
+        <v>80083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,13 +1601,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>677122</v>
+        <v>676451</v>
       </c>
       <c r="R10" t="n">
-        <v>7121243</v>
+        <v>7121619</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1616,12 +1631,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2017-06-13</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2017-06-13</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1632,46 +1647,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>låga</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies # låga</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sören Uppsäll, Per Nihlén</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67478964</v>
+        <v>56623489</v>
       </c>
       <c r="B11" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,21 +1674,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1703,10 +1698,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>676451</v>
+        <v>676055</v>
       </c>
       <c r="R11" t="n">
-        <v>7121619</v>
+        <v>7121083</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,12 +1728,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-06-13</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-06-13</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1749,68 +1744,69 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7125391</v>
+        <v>16944443</v>
       </c>
       <c r="B12" t="n">
-        <v>80119</v>
+        <v>91819</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6464</v>
+        <v>760</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vargträsk, Ly lm</t>
+          <t>Stor-Svartliden, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>677913</v>
+        <v>676938</v>
       </c>
       <c r="R12" t="n">
-        <v>7120569</v>
+        <v>7120915</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1834,17 +1830,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33673</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1855,64 +1846,83 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16944443</v>
+        <v>7125391</v>
       </c>
       <c r="B13" t="n">
-        <v>91819</v>
+        <v>80119</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>760</v>
+        <v>6464</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Stor-Svartliden, Ly lm</t>
+          <t>Vargträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>676938</v>
+        <v>677913</v>
       </c>
       <c r="R13" t="n">
-        <v>7120915</v>
+        <v>7120569</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1936,12 +1946,17 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33673</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1952,31 +1967,16 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -3358,48 +3358,52 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16944516</v>
+        <v>7120347</v>
       </c>
       <c r="B27" t="n">
-        <v>91263</v>
+        <v>80118</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stor-Svartliden, Ly lm</t>
+          <t>Vargträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>677434</v>
+        <v>677992</v>
       </c>
       <c r="R27" t="n">
-        <v>7121446</v>
+        <v>7120515</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3423,12 +3427,17 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2014-09-26</t>
+          <t>2012-06-21</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33671</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3439,83 +3448,64 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7120347</v>
+        <v>16944516</v>
       </c>
       <c r="B28" t="n">
-        <v>80118</v>
+        <v>91263</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Vargträsk, Ly lm</t>
+          <t>Stor-Svartliden, Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677992</v>
+        <v>677434</v>
       </c>
       <c r="R28" t="n">
-        <v>7120515</v>
+        <v>7121446</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3539,17 +3529,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Oskar Wallströmer  ID;33671</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3560,16 +3545,31 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -3800,32 +3800,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16944424</v>
+        <v>56623471</v>
       </c>
       <c r="B31" t="n">
-        <v>80118</v>
+        <v>91819</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6463</v>
+        <v>760</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3835,13 +3835,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>677163</v>
+        <v>676263</v>
       </c>
       <c r="R31" t="n">
-        <v>7120894</v>
+        <v>7121068</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3882,62 +3882,52 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56623471</v>
+        <v>16944424</v>
       </c>
       <c r="B32" t="n">
-        <v>91819</v>
+        <v>80118</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>760</v>
+        <v>6463</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3947,13 +3937,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>676263</v>
+        <v>677163</v>
       </c>
       <c r="R32" t="n">
-        <v>7121068</v>
+        <v>7120894</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3994,20 +3984,30 @@
       <c r="AG32" t="b">
         <v>0</v>
       </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
